--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Client:</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>'Screenshots'!A32</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A63</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A94</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A125</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A156</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A187</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A218</t>
   </si>
 </sst>
 </file>
@@ -104,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -116,6 +134,42 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -150,11 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -237,12 +297,240 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -354,10 +642,136 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="9">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="'Screenshots'!A1" ref="F8"/>
     <hyperlink location="'Screenshots'!A32" ref="F9"/>
+    <hyperlink location="'Screenshots'!A63" ref="F10"/>
+    <hyperlink location="'Screenshots'!A94" ref="F11"/>
+    <hyperlink location="'Screenshots'!A125" ref="F12"/>
+    <hyperlink location="'Screenshots'!A156" ref="F13"/>
+    <hyperlink location="'Screenshots'!A187" ref="F14"/>
+    <hyperlink location="'Screenshots'!A218" ref="F15"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -365,7 +779,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A218"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -377,6 +791,24 @@
     <row r="32">
       <c r="A32" s="0"/>
     </row>
+    <row r="63">
+      <c r="A63" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Client:</t>
   </si>
@@ -97,6 +97,42 @@
   </si>
   <si>
     <t>'Screenshots'!A32</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A63</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A94</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A125</t>
+  </si>
+  <si>
+    <t>Checkin and checkout is NOT present in the popup.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A156</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A187</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A218</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A249</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A280</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A311</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A342</t>
   </si>
 </sst>
 </file>
@@ -104,7 +140,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -129,13 +165,83 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,11 +256,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -237,12 +354,392 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -354,10 +851,220 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="'Screenshots'!A1" ref="F8"/>
     <hyperlink location="'Screenshots'!A32" ref="F9"/>
+    <hyperlink location="'Screenshots'!A63" ref="F10"/>
+    <hyperlink location="'Screenshots'!A94" ref="F11"/>
+    <hyperlink location="'Screenshots'!A125" ref="F12"/>
+    <hyperlink location="'Screenshots'!A156" ref="F13"/>
+    <hyperlink location="'Screenshots'!A187" ref="F14"/>
+    <hyperlink location="'Screenshots'!A218" ref="F15"/>
+    <hyperlink location="'Screenshots'!A249" ref="F16"/>
+    <hyperlink location="'Screenshots'!A280" ref="F17"/>
+    <hyperlink location="'Screenshots'!A311" ref="F18"/>
+    <hyperlink location="'Screenshots'!A342" ref="F19"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -365,7 +1072,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A342"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -377,6 +1084,36 @@
     <row r="32">
       <c r="A32" s="0"/>
     </row>
+    <row r="63">
+      <c r="A63" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="0"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="0"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Client:</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>'Screenshots'!A342</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A373</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A404</t>
   </si>
 </sst>
 </file>
@@ -140,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -152,6 +158,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -256,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -272,6 +290,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -734,12 +754,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1049,6 +1145,46 @@
       </c>
       <c r="F19" t="s" s="14">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s" s="16">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1065,6 +1201,8 @@
     <hyperlink location="'Screenshots'!A280" ref="F17"/>
     <hyperlink location="'Screenshots'!A311" ref="F18"/>
     <hyperlink location="'Screenshots'!A342" ref="F19"/>
+    <hyperlink location="'Screenshots'!A373" ref="F20"/>
+    <hyperlink location="'Screenshots'!A404" ref="F21"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1072,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A342"/>
+  <dimension ref="A1:A404"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1114,6 +1252,12 @@
     <row r="342">
       <c r="A342" s="0"/>
     </row>
+    <row r="373">
+      <c r="A373" s="0"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
   <si>
     <t>Client:</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>'Screenshots'!A404</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A435</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A466</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -158,6 +164,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -274,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -292,6 +310,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -830,12 +850,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1185,6 +1281,46 @@
       </c>
       <c r="F21" t="s" s="16">
         <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="18">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1203,6 +1339,8 @@
     <hyperlink location="'Screenshots'!A342" ref="F19"/>
     <hyperlink location="'Screenshots'!A373" ref="F20"/>
     <hyperlink location="'Screenshots'!A404" ref="F21"/>
+    <hyperlink location="'Screenshots'!A435" ref="F22"/>
+    <hyperlink location="'Screenshots'!A466" ref="F23"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1210,7 +1348,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A404"/>
+  <dimension ref="A1:A466"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,6 +1396,12 @@
     <row r="404">
       <c r="A404" s="0"/>
     </row>
+    <row r="435">
+      <c r="A435" s="0"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
   <si>
     <t>Client:</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>'Screenshots'!A466</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A497</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A528</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -164,6 +170,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -292,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -312,6 +330,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -926,12 +946,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>496</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>521</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1321,6 +1417,46 @@
       </c>
       <c r="F23" t="s" s="18">
         <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s" s="19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="20">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1341,6 +1477,8 @@
     <hyperlink location="'Screenshots'!A404" ref="F21"/>
     <hyperlink location="'Screenshots'!A435" ref="F22"/>
     <hyperlink location="'Screenshots'!A466" ref="F23"/>
+    <hyperlink location="'Screenshots'!A497" ref="F24"/>
+    <hyperlink location="'Screenshots'!A528" ref="F25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1348,7 +1486,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A466"/>
+  <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1402,6 +1540,12 @@
     <row r="466">
       <c r="A466" s="0"/>
     </row>
+    <row r="497">
+      <c r="A497" s="0"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>Client:</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>'Screenshots'!A528</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A559</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A590</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A621</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A652</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -170,6 +182,30 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -310,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -332,6 +368,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1022,12 +1062,164 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>558</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>614</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>620</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>645</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>676</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1457,6 +1649,86 @@
       </c>
       <c r="F25" t="s" s="20">
         <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s" s="21">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s" s="22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="24">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1479,6 +1751,10 @@
     <hyperlink location="'Screenshots'!A466" ref="F23"/>
     <hyperlink location="'Screenshots'!A497" ref="F24"/>
     <hyperlink location="'Screenshots'!A528" ref="F25"/>
+    <hyperlink location="'Screenshots'!A559" ref="F26"/>
+    <hyperlink location="'Screenshots'!A590" ref="F27"/>
+    <hyperlink location="'Screenshots'!A621" ref="F28"/>
+    <hyperlink location="'Screenshots'!A652" ref="F29"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1486,7 +1762,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A528"/>
+  <dimension ref="A1:A652"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1546,6 +1822,18 @@
     <row r="528">
       <c r="A528" s="0"/>
     </row>
+    <row r="559">
+      <c r="A559" s="0"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="0"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="0"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>Client:</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>'Screenshots'!A652</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A683</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A714</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -182,6 +188,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -346,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -372,6 +390,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1214,12 +1234,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>682</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>707</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>713</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>738</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1729,6 +1825,46 @@
       </c>
       <c r="F29" t="s" s="24">
         <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s" s="26">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1755,6 +1891,8 @@
     <hyperlink location="'Screenshots'!A590" ref="F27"/>
     <hyperlink location="'Screenshots'!A621" ref="F28"/>
     <hyperlink location="'Screenshots'!A652" ref="F29"/>
+    <hyperlink location="'Screenshots'!A683" ref="F30"/>
+    <hyperlink location="'Screenshots'!A714" ref="F31"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1762,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A652"/>
+  <dimension ref="A1:A714"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1834,6 +1972,12 @@
     <row r="652">
       <c r="A652" s="0"/>
     </row>
+    <row r="683">
+      <c r="A683" s="0"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="54">
   <si>
     <t>Client:</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>'Screenshots'!A714</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A745</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A776</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -188,6 +194,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -364,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -392,6 +410,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1310,12 +1330,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>744</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>775</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>800</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1865,6 +1961,46 @@
       </c>
       <c r="F31" t="s" s="26">
         <v>51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s" s="27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s" s="28">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1893,6 +2029,8 @@
     <hyperlink location="'Screenshots'!A652" ref="F29"/>
     <hyperlink location="'Screenshots'!A683" ref="F30"/>
     <hyperlink location="'Screenshots'!A714" ref="F31"/>
+    <hyperlink location="'Screenshots'!A745" ref="F32"/>
+    <hyperlink location="'Screenshots'!A776" ref="F33"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1900,7 +2038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A714"/>
+  <dimension ref="A1:A776"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1978,6 +2116,12 @@
     <row r="714">
       <c r="A714" s="0"/>
     </row>
+    <row r="745">
+      <c r="A745" s="0"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Client:</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>'Screenshots'!A32</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A63</t>
+  </si>
+  <si>
+    <t>Checkin and checkout is present in the popup.</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A94</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -119,6 +128,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -163,12 +184,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -251,12 +274,88 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -368,10 +467,52 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="6">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="'Screenshots'!A1" ref="F8"/>
     <hyperlink location="'Screenshots'!A32" ref="F9"/>
+    <hyperlink location="'Screenshots'!A63" ref="F10"/>
+    <hyperlink location="'Screenshots'!A94" ref="F11"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -379,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +532,12 @@
     <row r="32">
       <c r="A32" s="0"/>
     </row>
+    <row r="63">
+      <c r="A63" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Client:</t>
   </si>
@@ -109,6 +109,48 @@
   </si>
   <si>
     <t>'Screenshots'!A94</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A125</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A156</t>
+  </si>
+  <si>
+    <t>Show consultant narration</t>
+  </si>
+  <si>
+    <t>Consultant narration should be displayed</t>
+  </si>
+  <si>
+    <t>Consultant Narration is Displayed in Appointment scheduler screen</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A187</t>
+  </si>
+  <si>
+    <t>Disable Approximate Time in Appointment</t>
+  </si>
+  <si>
+    <t>Approximate time should Enabled and editable</t>
+  </si>
+  <si>
+    <t>Approximate time is Editable</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A218</t>
+  </si>
+  <si>
+    <t>Disable Wilayats and Governorate</t>
+  </si>
+  <si>
+    <t>Governorate and wilayates should not display</t>
+  </si>
+  <si>
+    <t>Governorate and wilayates is not displayed</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A249</t>
   </si>
 </sst>
 </file>
@@ -116,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -128,6 +170,36 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -184,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -192,6 +264,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -350,12 +427,202 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -507,12 +774,117 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="11">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink location="'Screenshots'!A1" ref="F8"/>
     <hyperlink location="'Screenshots'!A32" ref="F9"/>
     <hyperlink location="'Screenshots'!A63" ref="F10"/>
     <hyperlink location="'Screenshots'!A94" ref="F11"/>
+    <hyperlink location="'Screenshots'!A125" ref="F12"/>
+    <hyperlink location="'Screenshots'!A156" ref="F13"/>
+    <hyperlink location="'Screenshots'!A187" ref="F14"/>
+    <hyperlink location="'Screenshots'!A218" ref="F15"/>
+    <hyperlink location="'Screenshots'!A249" ref="F16"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -520,7 +892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A94"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +910,21 @@
     <row r="94">
       <c r="A94" s="0"/>
     </row>
+    <row r="125">
+      <c r="A125" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="0"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/test-classes/Appmnt_admin.xlsx
+++ b/target/test-classes/Appmnt_admin.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Client:</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>'Screenshots'!A249</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A280</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A311</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A342</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A373</t>
+  </si>
+  <si>
+    <t>'Screenshots'!A404</t>
   </si>
 </sst>
 </file>
@@ -158,7 +173,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -170,6 +185,36 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -256,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -269,6 +314,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -617,12 +667,202 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454998</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -872,6 +1112,106 @@
       </c>
       <c r="F16" t="s" s="11">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s" s="16">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -885,6 +1225,11 @@
     <hyperlink location="'Screenshots'!A187" ref="F14"/>
     <hyperlink location="'Screenshots'!A218" ref="F15"/>
     <hyperlink location="'Screenshots'!A249" ref="F16"/>
+    <hyperlink location="'Screenshots'!A280" ref="F17"/>
+    <hyperlink location="'Screenshots'!A311" ref="F18"/>
+    <hyperlink location="'Screenshots'!A342" ref="F19"/>
+    <hyperlink location="'Screenshots'!A373" ref="F20"/>
+    <hyperlink location="'Screenshots'!A404" ref="F21"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -892,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A404"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,6 +1270,21 @@
     <row r="249">
       <c r="A249" s="0"/>
     </row>
+    <row r="280">
+      <c r="A280" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="0"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="0"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
